--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OsamaRoslan\OneDrive - Universiti Malaya\Documents\GitHub\WIA 2004\Moonbuck\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EF2022-DE47-4D09-AC16-79CF01192CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579CB8EB-B41D-44C2-BA17-52B2D41BFBFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
